--- a/va_facility_data_2025-02-20/Clifton Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clifton%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clifton Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clifton%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R267149283efe4ac9b2e0d908eadc1c2b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9798fd4c419243c7955d1ad44b95151a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f4ebbe844244da48c86a30878f1fd14"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9b586e3f192847abb1cf5c47892e3502"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdd33ce2c870a4854b560ee7f3b74b28f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1843c76a813944f5aaf37e34bdaf2709"/>
   </x:sheets>
 </x:workbook>
 </file>
